--- a/biology/Botanique/Brun_argenté/Brun_argenté.xlsx
+++ b/biology/Botanique/Brun_argenté/Brun_argenté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brun_argent%C3%A9</t>
+          <t>Brun_argenté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le brun argenté ou vaccarèse est un cépage rouge, entrant dans la composition du Châteauneuf-du-pape et des Côtes-du-rhône.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brun_argent%C3%A9</t>
+          <t>Brun_argenté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est probablement originaire de la région de Camargue où se trouve l'étang de Vaccarès.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brun_argent%C3%A9</t>
+          <t>Brun_argenté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Type de vin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il donne un vin floral, léger et peu coloré, frais et élégant. En assemblage, il modère l'ardeur du grenache[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne un vin floral, léger et peu coloré, frais et élégant. En assemblage, il modère l'ardeur du grenache.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brun_argent%C3%A9</t>
+          <t>Brun_argenté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Ampélographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il débourre et mûrit tardivement. Il est très sensible au mildiou Il est rarement cultivé ou vinifié seul. Son caractère tannique et chaud serait proche de la syrah.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brun_argent%C3%A9</t>
+          <t>Brun_argenté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Brun argenté est connu sous les noms d'Argenteuil, Arzhente, Bakarezo, Bryun, Camarèse (à Chusclan), Camarèzo, Camares du Gard, Cinsaut 2, Kamaredyu Gard, Kamarez, Madeleine, Vacarèze Blanc, Vaccarèse, Vaccareso et Vakarez bekannt.
 </t>
